--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 18. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 18. komite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:H262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,21 @@
           <t>Tescilli Adresi</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Şirket Türü</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Numarası</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Meslek Grubu Adı</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -482,6 +497,21 @@
           <t>MANSUROĞLU MAHALLESİ 286/1  SOK. NO: 1  İÇ KAPI NO: 215 BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -505,6 +535,21 @@
           <t xml:space="preserve"> 1372 SOKAK NO:15/801 NUKHET HANIM İŞHANI ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -524,6 +569,21 @@
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -547,6 +607,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: Z19  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -570,6 +645,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI NO:24  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -593,6 +683,21 @@
           <t xml:space="preserve"> 10006 SOKAK NO:3  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -616,6 +721,21 @@
           <t xml:space="preserve"> 10006 SOKAK NO:3  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -639,6 +759,21 @@
           <t xml:space="preserve"> ÇINAR MAH. 5003 SK. NO: 1/5 İÇ KAPI NO: 21 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -662,6 +797,21 @@
           <t xml:space="preserve"> ÇINAR MAHALLESİ 5003 SK.  NO: 1 /5/21  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -685,6 +835,21 @@
           <t xml:space="preserve"> 10006 SOKAK NO:58  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -708,6 +873,21 @@
           <t xml:space="preserve"> 10006 SOKAK NO:58  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -731,6 +911,21 @@
           <t xml:space="preserve"> IRMAK MAH. 717 SK. B5 BLOK NO: 8/1 İÇ KAPI NO: 8 GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -754,6 +949,21 @@
           <t xml:space="preserve"> MÜRSELPAŞA BULVARI NO:4/201  BASMANE / İZMİR</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -777,6 +987,21 @@
           <t>ATIFBEY                   MAHALLESİ 2 SOKAK NO: 53 A GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -800,6 +1025,21 @@
           <t xml:space="preserve"> GAZİ MAH. AKÇAY CAD. NO: 190B GAZİEMİR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -823,6 +1063,21 @@
           <t xml:space="preserve"> 121 SK. NO:18 AYAKKABICILAR SİTESİ IŞIKKENT / İZMİR</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -846,6 +1101,21 @@
           <t>ETİLER MAHALLESİ 1265 SOK. NO: 6/11 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -869,6 +1139,21 @@
           <t xml:space="preserve"> FIRAT  272   NO: NO: 41/A BUCA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -892,6 +1177,21 @@
           <t xml:space="preserve"> ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ  NO: 1T BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -915,6 +1215,21 @@
           <t xml:space="preserve"> GAZİLER CAD. 1254 SOKAK NO:2/17  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -938,6 +1253,21 @@
           <t>BOSTANLI                  MAHALLESİ 2014 SK.  NO: 13A KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -961,6 +1291,21 @@
           <t xml:space="preserve"> 9 EYLÜL MAHALLESİ 698 SOK. NO:7 GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -984,6 +1329,21 @@
           <t xml:space="preserve"> CUMHURİYET BULV. NO:40/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1007,6 +1367,21 @@
           <t xml:space="preserve"> 1308 SOKAK NO:7/F  ÇANKAYA / İZMİR</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1030,6 +1405,21 @@
           <t xml:space="preserve"> OSMAN AKSÜNER YEŞİLLİK   NO:165/32 KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1053,6 +1443,21 @@
           <t>ETİLER                    MAHALLESİ MÜRSELPAŞA BULVARI NO:4/11 DERİ HAN Apt.  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1076,6 +1481,21 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1  SOK. NO: 6/76   BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1099,6 +1519,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/4 SK. BALTALI İŞM. A BLOK Apt.  NO: 8/61   KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1122,6 +1557,21 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO:26  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1145,6 +1595,21 @@
           <t>OSMAN AKSÜNER MAHALLESİ 5921 SOKAK NO:1  DAİRE:101 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1168,6 +1633,21 @@
           <t xml:space="preserve"> BOZKURT CADDESİ NO:24/B  KAPILAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1191,6 +1671,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: Z10 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1214,6 +1709,21 @@
           <t xml:space="preserve"> BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD.  NO: 3  İÇ KAPI NO: Z81 BALÇOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1237,6 +1747,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6118 SK. NO: 45 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1260,6 +1785,21 @@
           <t>KORUTÜRK MAHALLESİ AHLAT SOK. NO:3  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1283,6 +1823,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAH. 5823 SK.  NO: 23A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1306,6 +1861,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAH. 5733 SK. NO: 123/1 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1329,6 +1899,21 @@
           <t xml:space="preserve"> GÜZELYURT MAH. 920 SK. NO: 63 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1352,6 +1937,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6124 SK. NO: 14 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1375,6 +1975,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. 1308 SK. NO: 5 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1398,6 +2013,21 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİ BEY CAD. HERİS TOWER BLOK  NO: 55  İÇ KAPI NO: 091 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1421,6 +2051,21 @@
           <t xml:space="preserve"> KAZIM KARABEKİR CAD. NO:25/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1444,6 +2089,21 @@
           <t>SEYHAN                    MAHALLESİ 611/2 SK. NO: 6A  İÇ KAPI NO: A BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1467,6 +2127,21 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CADDESİ NO:2/51  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1486,6 +2161,21 @@
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1509,6 +2199,21 @@
           <t>YENİŞEHİR MAHALLESİ 1245 SOKAK NO: 31/21 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -1532,6 +2237,21 @@
           <t xml:space="preserve"> 1413 SOKAK NO:2  / İZMİR</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -1555,6 +2275,21 @@
           <t xml:space="preserve"> 6116 SOKAK NO:17 AYAKKABICILAR SİTESİ IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1578,6 +2313,21 @@
           <t>OĞUZLAR MAHALLESİ 1258 SK. NO: 2  İÇ KAPI NO: 11  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -1601,6 +2351,21 @@
           <t xml:space="preserve"> 5745/1 SK. NO:9  ÇAMDİBİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1624,6 +2389,21 @@
           <t>KONAK                     MAHALLESİ 856 SOKAK NO:7  KAT:1 DAİRE:102 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1647,6 +2427,21 @@
           <t xml:space="preserve"> OĞUZLAR MAH. 1254 SK.  NO: 2  İÇ KAPI NO: 2 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -1670,6 +2465,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAHALLESİ 5824 SK.  NO: 1 A  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1693,6 +2503,21 @@
           <t xml:space="preserve"> ÇAĞDAŞ MAH. 8825 SK. CUMHURIYET SİTESİ BİRLİK BLOK  NO: 15B ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1716,6 +2541,21 @@
           <t xml:space="preserve"> GÜNEŞLİ MAH. 526/3 SK. NO: 7 İÇ KAPI NO: 5 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1739,6 +2579,21 @@
           <t>EGEMENLİK MAHALLESİ 6125 SOKAK NO:15  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -1762,6 +2617,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA BULVARI NO:75 D:203-204 KAT:2 ÇANKAYA KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -1785,6 +2655,21 @@
           <t xml:space="preserve"> NO:36  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -1808,6 +2693,21 @@
           <t xml:space="preserve"> 1836 SOK. NO:35/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1831,6 +2731,21 @@
           <t>AŞIK VEYSEL MAHALLESİ 5846 SK. NO:2  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -1854,6 +2769,21 @@
           <t xml:space="preserve"> 6129 SOKAK NO:15 AYAKKABICILAR SİTESİ IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -1877,6 +2807,21 @@
           <t xml:space="preserve"> KONAK MAH. 863 SK. NO: 23 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -1900,6 +2845,21 @@
           <t>MERİÇ                     MAHALLESİ 5745/1 SK. NO:8/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -1923,6 +2883,21 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:12  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -1946,6 +2921,21 @@
           <t xml:space="preserve"> YENİ MAHALLE MAH. 8208 SK. TAYLAN NO: 40A ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -1969,6 +2959,21 @@
           <t>AKSOY                     MAHALLESİ 1735 SK. NO:99/1  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -1992,6 +2997,21 @@
           <t>ETİLER                    MAHALLESİ MÜRSELPAŞA BULVARI DERİ HAN BLOK  NO: 4  İÇ KAPI NO: 31  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2015,6 +3035,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6124 SK.  NO: 26/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2038,6 +3073,21 @@
           <t>OĞUZLAR MAHALLESİ 1251/2 SOKAK NO:10 ZEMİN VE 1. KAT KAPILAR BASMANE / İZMİR</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2061,6 +3111,21 @@
           <t xml:space="preserve"> MÜRSELPAŞA BULVARI NO:24/12  KAHRAMANLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2084,6 +3149,21 @@
           <t xml:space="preserve"> AKDENİZ MAHALLESİ MİMAR KEMALETTİN CAD. T. ÜLKÜ ÇARŞISI APT.  NO: 107/404  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2107,6 +3187,21 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ MEHMET AKİF CAD. NO:89  MENDERES        / İZMİR</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2130,6 +3225,21 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:5  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2153,6 +3263,21 @@
           <t xml:space="preserve"> ÇEŞME OTOYOL ÜZERİ LİMONTEPE MEVKİİ  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2176,6 +3301,21 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:10  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2199,6 +3339,21 @@
           <t>MAVİŞEHİR                 MAHALLESİ AZİZ NESİN BULVARI NO:24  MAVİŞEHİR KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2222,6 +3377,21 @@
           <t xml:space="preserve"> AKÇAY CAD. NO:101  İZMİR OPTİMUM OUTLET VE EĞLENCE MERKEZİ GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -2245,6 +3415,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: Z28 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -2268,6 +3453,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit.  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -2287,6 +3487,21 @@
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -2310,6 +3525,21 @@
           <t xml:space="preserve"> GAZİLER CADDESİ NO:188/1 ASLIHAN 701-702 KAPILAR / İZMİR</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -2333,6 +3563,21 @@
           <t>AYDIN MAHALLESİ 4281 SOKAK NO:2 İÇ KAPI NO: 1 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -2356,6 +3601,21 @@
           <t>GAZİ                      MAHALLESİ 16 SOKAK NO: 11 /E GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -2379,6 +3639,21 @@
           <t xml:space="preserve"> OSMAN AKSÜNER MAH. 5920 SK. NO: 3 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -2402,6 +3677,21 @@
           <t>GÜNEŞLİ                   MAHALLESİ 515/4 SOKAK NO:12/A  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -2425,6 +3715,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA MAH. YAVUZ SELİM CAD. NO: 15 İÇ KAPI NO: 31 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -2444,6 +3749,21 @@
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -2467,6 +3787,21 @@
           <t xml:space="preserve"> KONAK MAH. 876 SK. NO: 22 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -2490,6 +3825,21 @@
           <t xml:space="preserve"> KAZIM DİRİK MAHALLESİ 372 SK. NO:24/H E BLOK BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -2513,6 +3863,21 @@
           <t xml:space="preserve"> MİTHAT PAŞA CADDESI NO:1446  KAT:1 DAİRE:124 BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -2536,6 +3901,21 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3  İÇ KAPI NO: Z37  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -2559,6 +3939,21 @@
           <t>YALI MAHALLESİ 6522 SOK. NO:3 HİLLTOVVN AVM BLOK KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -2582,6 +3977,21 @@
           <t xml:space="preserve"> AKÇAY CADDESİ NO:101  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -2605,6 +4015,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESI İZMİR AGORA ALIŞVERİŞ MERKEZİ 2NOLU PARSEL NO:30-32 Z-2-20  / </t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -2628,6 +4053,21 @@
           <t xml:space="preserve"> ÇETİN EMEÇ MAHALLESİ MODA SOKAK NO:1/H Z016  NOVADA OUTLET BALÇOVA AVM  / </t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -2651,6 +4091,21 @@
           <t xml:space="preserve"> AKÇAY CD. NO:101  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -2674,6 +4129,21 @@
           <t xml:space="preserve"> ABDİ İPEKÇİ MAH. 4957 SK. NO: 88A İÇ KAPI NO: A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -2697,6 +4167,21 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:24 AYKÜSAN AYAKKABICILAR SİTESİ IŞIKKENT / İZMİR</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -2720,6 +4205,21 @@
           <t xml:space="preserve"> YELKİ MAH. 2732 SK. NO: 138 İÇ KAPI NO: 27 GÜZELBAHÇE / İZMİR  / </t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -2743,6 +4243,21 @@
           <t>RAFETPAŞA MAHALLESİ YILDIRIM BEYAZIT CADDESİ B BLOK  NO: 217D BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -2766,6 +4281,21 @@
           <t xml:space="preserve"> GÖKDERE MAHALLESİ GÖKDERE CAD.  NO: 24/Z1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -2789,6 +4319,21 @@
           <t>İHSAN ALYANAK MAHALLESİ 5020 SK. NO:82  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -2812,6 +4357,21 @@
           <t>TUNA                      MAHALLESİ 5501 SOKAK NO:31/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -2835,6 +4395,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/1 SK. NO: 26 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -2858,6 +4433,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6087 SK.  NO: 4/B1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -2881,6 +4471,21 @@
           <t xml:space="preserve"> KARACAOĞLAN MAHALLESİ 6159 SK.  NO: 1 D  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -2904,6 +4509,21 @@
           <t xml:space="preserve"> 1145/4 SOKAK NO:11  KAT:1 DAİRE:104 YENİŞEHİR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -2927,6 +4547,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. 1145/5 SK. ÇETİNKAYA İŞ MERKEZİ NO: 5 İÇ KAPI NO: 301 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -2950,6 +4585,21 @@
           <t>BİNBAŞI REŞATBEY MAHALLESİ AKÇAY CAD. NO: 19  İÇ KAPI NO: Z1  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -2973,6 +4623,21 @@
           <t xml:space="preserve"> KEMALPAŞA  7405/1  NO:8/1 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
@@ -2996,6 +4661,21 @@
           <t>OĞUZLAR MAHALLESİ GAZİLER CADDESİ NO:188/1 ASLI HAN BLOK KAT:301 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
@@ -3019,6 +4699,21 @@
           <t xml:space="preserve"> MERİÇ MAHALLESİ 5745/1 SK.  NO: 1/3  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
@@ -3042,6 +4737,21 @@
           <t>ETİLER                    MAHALLESİ 1268 SOKAK GÜNTEKİN İŞ MERKEZİ Apt.  NO: 10/101 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
@@ -3065,6 +4775,21 @@
           <t>OĞUZLAR MAHALLESİ 1251 SOKAK NO:2  KAT:5 DAİRE:50 BASMANE KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -3088,6 +4813,21 @@
           <t xml:space="preserve"> YUNUS EMRE MAHALLESİ 4026 SK.  NO: 11/_  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -3111,6 +4851,21 @@
           <t>EGEMENLİK MAHALLESİ 6122 SOKAK NO: 15  İÇ KAPI NO: 1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
@@ -3134,6 +4889,21 @@
           <t xml:space="preserve"> GAZİLER CADDESİ 1254 SOKAK NO:2/17-  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
@@ -3157,6 +4927,21 @@
           <t>MERSİNLİ                  MAHALLESİ FATİH CADDESİ NO: 216  İÇ KAPI NO: 11  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -3180,6 +4965,21 @@
           <t xml:space="preserve"> BUCAOSB MAH. 3/21 SK.  NO: 12 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
@@ -3199,6 +4999,21 @@
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
@@ -3222,6 +5037,21 @@
           <t xml:space="preserve"> 6124 SOKAK NO:8  IŞIKKENT / İZMİR</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
@@ -3245,6 +5075,21 @@
           <t>OĞUZLAR MAHALLESİ GAZİLER CADDESİ NO:192/501  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
@@ -3268,6 +5113,21 @@
           <t>TUNA                      MAHALLESİ 1710 SK. NO:14/A  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
@@ -3291,6 +5151,21 @@
           <t>AŞIK VEYSEL MAHALLESİ YEŞİLLİK CAD. NO:335  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
@@ -3314,6 +5189,21 @@
           <t>AKDENİZ                   MAHALLESİ MİMAR KEMALETTİN CADDESİ T. ÜLKÜ ÇARŞISI BLOK  NO: 107  İÇ KAPI NO: Z0 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
@@ -3337,6 +5227,21 @@
           <t>TUNA                      MAHALLESİ 5500/3 SOK. NO:16  ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -3360,6 +5265,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAHALLESİ 5853 SK.  NO: 6 A/A  KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
@@ -3383,6 +5303,21 @@
           <t>AŞIK VEYSEL MAHALLESİ 4038 SOK. NO: 11  İÇ KAPI NO: 11 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
@@ -3406,6 +5341,21 @@
           <t xml:space="preserve"> BOZKURT CADDESİ NO:23/301  KAPILAR / İZMİR</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
@@ -3429,6 +5379,21 @@
           <t xml:space="preserve"> ETİLER MAH. 1266 SK.  NO: 6  İÇ KAPI NO: 11 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
@@ -3452,6 +5417,21 @@
           <t>YENİŞEHİR                 MAHALLESİ 1202 SOKAK NO:144/21  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
@@ -3475,6 +5455,21 @@
           <t>BAHÇELERARASI             MAHALLESİ SANDAL SK. NO:33  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
@@ -3498,6 +5493,21 @@
           <t xml:space="preserve"> OĞUZLAR MAH. 1250 SK. NO: 27 İÇ KAPI NO: 21 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
@@ -3521,6 +5531,21 @@
           <t xml:space="preserve"> ÜNİVERSİTE MAH. 4418 SK. NO: 5 ÇEŞME / İZMİR  / </t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -3544,6 +5569,21 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO:12/14  IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
@@ -3567,6 +5607,21 @@
           <t>OĞUZLAR MAHALLESİ 1254 SOKAK NO:2/25  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
@@ -3590,6 +5645,21 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CAD. NO:24/32  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
@@ -3613,6 +5683,21 @@
           <t xml:space="preserve"> ESENTEPE MAH. 8810/1 SK. NO: 21B ÇİĞLİ / İZMİR  / </t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
@@ -3636,6 +5721,21 @@
           <t>OSMAN AKSÜMER MAHALLESİ 5902 SOKAK NO:4/11  KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
@@ -3659,6 +5759,21 @@
           <t xml:space="preserve"> 135 SOKAK NO:50 AYKÜSAN IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
@@ -3682,6 +5797,21 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CD. NO:60  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
@@ -3705,6 +5835,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAH. 5733 SK.  NO: 103  İÇ KAPI NO: Z1 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
@@ -3728,6 +5873,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAHALLESİ 5853 SOKAK NO:7  KARABAĞLAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
@@ -3751,6 +5911,21 @@
           <t>ETİLER                    MAHALLESİ 1268 SOKAK GÜNTEKİN İŞ MERKEZİ BLOK NO:10 İÇ KAPI NO:102 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
@@ -3774,6 +5949,21 @@
           <t xml:space="preserve"> AYDIN MAH. 4308 SK. AKYOL BLOK  NO: 2  İÇ KAPI NO: 21 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
@@ -3797,6 +5987,21 @@
           <t xml:space="preserve"> MİTHATPAŞA CADDESI NO:1448  BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
@@ -3820,6 +6025,21 @@
           <t>ÇETİN EMEÇ MAHALLESİ MODA SK. NO:3/B  SELWAY OUTLET PARK AVM BALÇOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
@@ -3843,6 +6063,21 @@
           <t xml:space="preserve"> BAHÇELİEVLER MAH. 509/6 SK. NO: 26A KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
@@ -3866,6 +6101,21 @@
           <t>EMREZ                     MAHALLESİ 179 SOKAK NO:10/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
@@ -3889,6 +6139,21 @@
           <t>ADALET MAHALLESİ MANAS  BULVARI NO: 47 B/2601  BAYRAKLI        / İZMİR</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
@@ -3912,6 +6177,21 @@
           <t xml:space="preserve"> 6133/1 SOKAK NO: 2A IŞIKKENT BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
@@ -3935,6 +6215,21 @@
           <t>ETİLER                    MAHALLESİ BOZKURT CADDESİ NO:21/41  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
@@ -3958,6 +6253,21 @@
           <t xml:space="preserve"> OĞUZLAR MAH. 1254 SK. NO: 3 İÇ KAPI NO: 708 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
@@ -3981,6 +6291,21 @@
           <t>ATATÜRK                   MAHALLESİ 762 SOKAK NO:35/Z-1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -4004,6 +6329,21 @@
           <t xml:space="preserve"> 6118 SOKAK NO:38 AYAKKABICILAR SİTESİ IŞIKKENT / İZMİR</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -4027,6 +6367,21 @@
           <t xml:space="preserve"> SEYHAN MAH. 611/2 SK. NO: 6 İÇ KAPI NO: 1 BUCA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
@@ -4050,6 +6405,21 @@
           <t xml:space="preserve"> 1202/2 SOKAK NO:99  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
@@ -4073,6 +6443,21 @@
           <t>MERİÇ MAHALLESİ 5746/1 SOKAK NO:8  M.T.K.SİTESİ BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -4096,6 +6481,21 @@
           <t>UFUK MAHALLESİ 914 SOK. NO:25/1  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
@@ -4119,6 +6519,21 @@
           <t xml:space="preserve"> 1003 SK. NO:52/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
@@ -4142,6 +6557,21 @@
           <t>BARIŞ                     MAHALLESİ 302 SK. NO:10/A/A  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
@@ -4165,6 +6595,21 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CAD. NO: 2  İÇ KAPI NO: 71 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
@@ -4188,6 +6633,21 @@
           <t>ADATEPE                   MAHALLESİ 2/17 SK. NO: 51 A/2   BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
@@ -4211,6 +6671,21 @@
           <t>KAZIMDİRİK MAHALLESİ 296/1 SK. NO:4  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
@@ -4234,6 +6709,21 @@
           <t>OSMAN AKSUNER MAHALLESİ 5922 SK.  NO: 2  İÇ KAPI NO: 102 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
@@ -4257,6 +6747,21 @@
           <t xml:space="preserve"> TALATPAŞA BULVARI NO:57  DAİRE:14 ALSANCAK / İZMİR</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
@@ -4280,6 +6785,21 @@
           <t xml:space="preserve"> KEMALPAŞA MAHALLESİ 7405/1 SK.  NO: 12/_  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
@@ -4303,6 +6823,21 @@
           <t>OSMAN AKSÜNER MAHALLESİ YEŞİLLİK CAD. NO: 167  İÇ KAPI NO: 21 KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
@@ -4326,6 +6861,21 @@
           <t xml:space="preserve"> BOZKURT CADDESİ NO:24/101  KAPILAR / İZMİR</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
@@ -4349,6 +6899,21 @@
           <t xml:space="preserve"> SELÇUK MAH. 636 SK.  NO: 4  İÇ KAPI NO: 1 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
@@ -4372,6 +6937,21 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO: 41  İÇ KAPI NO: 1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
@@ -4395,6 +6975,21 @@
           <t>MERİÇ MAHALLESİ 5745/6 SK NO: 14  İÇ KAPI NO: 3  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -4418,6 +7013,21 @@
           <t>MERİÇ                     MAHALLESİ 5745/7 SOK. NO:8/2  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -4441,6 +7051,21 @@
           <t xml:space="preserve"> MERİÇ MAH. 5747/1 SK.  NO: 16  İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
@@ -4464,6 +7089,21 @@
           <t xml:space="preserve"> 5759/2 SOKAK NO:5  KARABAĞLAR / İZMİR</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
@@ -4487,6 +7127,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAHALLESİ 283 SK.  NO: 16/1  BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
@@ -4510,6 +7165,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6125 SOKAK NO:31 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
@@ -4533,6 +7203,21 @@
           <t>OĞUZLAR MAHALLESİ 1250 SOKAK NO: 27  İÇ KAPI NO: 12 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
@@ -4556,6 +7241,21 @@
           <t xml:space="preserve"> 1259 SOKAK NO:19/A  KAHRAMANLAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
@@ -4579,6 +7279,21 @@
           <t xml:space="preserve"> ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
@@ -4602,6 +7317,21 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK MERKEZ ÇARŞI BLOK  NO: 1  İÇ KAPI NO: 109 BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
@@ -4625,6 +7355,21 @@
           <t xml:space="preserve"> PEKER MAHALLESİ 5069  SOKAK NO:18 /- _ ADRES NO: 1070562895 MESKEN KARABAĞLAR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
@@ -4648,6 +7393,21 @@
           <t>OĞUZLAR MAHALLESİ 1251 SOKAK NO: 2  İÇ KAPI NO: Z1 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
@@ -4671,6 +7431,21 @@
           <t xml:space="preserve"> KONAK MAH. ANAFARTALAR CAD. NO: 116 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
@@ -4694,6 +7469,21 @@
           <t xml:space="preserve"> BOZKURT CADDESİ NO:2  KAT:2 DAİRE:201 KAPILAR / İZMİR</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
@@ -4717,6 +7507,21 @@
           <t>KOCAKAPI                  MAHALLESİ 1250/1 SOKAK  NO: 4  İÇ KAPI NO: 1 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -4740,6 +7545,21 @@
           <t>YENİŞEHİR MAHALLESİ 1245 SOKAK NO:31 İÇ KAPI NO: 31 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
@@ -4763,6 +7583,21 @@
           <t>AŞIK VEYSEL MAHALLESİ 5733 SOK. NO: 123B  İÇ KAPI NO: B KARABAĞLAR      / İZMİR</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
@@ -4786,6 +7621,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 284 SK. NO: 2 İÇ KAPI NO: 407 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
@@ -4809,6 +7659,21 @@
           <t>TUNA                      MAHALLESİ 5501 SOKAK NO:31/A  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
@@ -4832,6 +7697,21 @@
           <t xml:space="preserve"> 1259 SOKAK NO:21/A  KAHRAMANLAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
@@ -4855,6 +7735,21 @@
           <t>ÇINARLI                   MAHALLESİ 1587/1 SOKAK NO:8/406  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
@@ -4878,6 +7773,21 @@
           <t>ETİLER                    MAHALLESİ MÜRSELPAŞA BULVARI DERİ HAN Apt.  NO: 4/21 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
@@ -4901,6 +7811,21 @@
           <t>ŞİRİNKENT MAHALLESİ 4257 SK. 1 NO.LU BLOK  NO: 20/1 URLA            / İZMİR</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
@@ -4924,6 +7849,21 @@
           <t>ETİLER                    MAHALLESİ 1264 SOKAK NO:6/11  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
@@ -4947,6 +7887,21 @@
           <t>AYKÜSAN IŞIKKENT MAHALLESİ 6108 CADDE NO:31  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
@@ -4970,6 +7925,21 @@
           <t>İSMET KAPTAN              MAHALLESİ GAZİ OSMAN PAŞA BULVARI HİLTON OTELİ BLOK  NO: 7  İÇ KAPI NO: Z15  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
@@ -4989,6 +7959,21 @@
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
@@ -5012,6 +7997,21 @@
           <t xml:space="preserve"> YENİŞEHİR MAH. GAZİLER CAD.  NO: 353/6  İÇ KAPI NO: 22 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
@@ -5035,6 +8035,21 @@
           <t xml:space="preserve"> CENNETOĞLU MAH. YEŞİLLİK CAD.  NO: 202-204B KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
@@ -5058,6 +8073,21 @@
           <t xml:space="preserve"> ETİLER MAH. BOZKURT CAD. DERİCİLER ÇARŞISI NO: 1D İÇ KAPI NO: D KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
@@ -5081,6 +8111,21 @@
           <t xml:space="preserve"> GÖKDERE CD. NO:28  GÖKDERE BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
@@ -5104,6 +8149,21 @@
           <t xml:space="preserve"> YILDIRIM BEYAZIT CAD.  ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
@@ -5127,6 +8187,21 @@
           <t>LALE                      MAHALLESİ GÜRÇEŞME CADDESİ  NO: 392  İÇ KAPI NO: 3 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
@@ -5150,6 +8225,21 @@
           <t xml:space="preserve"> ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
@@ -5173,6 +8263,21 @@
           <t xml:space="preserve"> OĞUZLAR MAH. 1251 SK.  NO: 2  İÇ KAPI NO: 21 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
@@ -5196,6 +8301,21 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:4  BUCA            / İZMİR</t>
         </is>
       </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
@@ -5219,6 +8339,21 @@
           <t>HURŞİDİYE                 MAHALLESİ 1308 SOKAK NO:2/101  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
@@ -5242,6 +8377,21 @@
           <t xml:space="preserve"> AKÇAY CD. NO:231/A  GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
@@ -5265,6 +8415,21 @@
           <t xml:space="preserve"> MÜRSELPAŞA BULVARI NO:4/A  BASMANE KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -5288,6 +8453,21 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO:28  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -5311,6 +8491,21 @@
           <t xml:space="preserve"> İSMET KAPTAN MAHALLESİ  1374  NO:4/601 KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
@@ -5334,6 +8529,21 @@
           <t>ETİLER                    MAHALLESİ 1264 SOKAK NO: 6  İÇ KAPI NO: 21 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
@@ -5357,6 +8567,21 @@
           <t xml:space="preserve"> AŞIK VEYSEL MAH. 5822 SK. NO: 17  İÇ KAPI NO: 11 KARABAĞLAR / İZMİR  / </t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
@@ -5380,6 +8605,21 @@
           <t xml:space="preserve"> 1725 SK. NO:35/E  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
@@ -5403,6 +8643,21 @@
           <t xml:space="preserve"> ETİLER GAZİLER   NO:NO:117/709  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
@@ -5426,6 +8681,21 @@
           <t xml:space="preserve"> GAZİLER CAD. NO:194/105  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
@@ -5445,6 +8715,21 @@
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -5468,6 +8753,21 @@
           <t xml:space="preserve"> HALKAPINAR MAHALLESİ 1203/4 SK.  NO: 8/51  KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -5491,6 +8791,21 @@
           <t xml:space="preserve"> ANAFARTALAR CADDESİ NO:500/B56 ÇANKAYA 10NOLUOTOPARKTİCARET MRK.MEZARLIKBAŞI ÇANKAYA KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -5514,6 +8829,21 @@
           <t>MİTHATPAŞA MAHALLESİ 178 SK. NO:10  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
@@ -5537,6 +8867,21 @@
           <t>MUSTAFA KEMAL MAHALLESİ 6753/8 SK. NO: 15 C/9 KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -5560,6 +8905,21 @@
           <t>OĞUZLAR MAHALLESİ 1251 SOKAK NO:2/51  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
@@ -5579,6 +8939,21 @@
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
@@ -5602,6 +8977,21 @@
           <t xml:space="preserve"> MENDERES MAHALLESİ 1168 SK.  NO: 25  GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
@@ -5625,6 +9015,21 @@
           <t>HALKAPINAR MAHALLESİ 1203 SOK. NO: 13  İÇ KAPI NO: 707 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
@@ -5648,6 +9053,21 @@
           <t xml:space="preserve">  ADNAN MENDERES HAVALİMANI İÇ HATLAR TERMİNALİ KAT OTOPARKI GAZİEMİR        / İZMİR</t>
         </is>
       </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
@@ -5671,6 +9091,21 @@
           <t xml:space="preserve"> KAZIMDİRİK MAH. 296/2 SK. NO: 33 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
@@ -5694,6 +9129,21 @@
           <t>YENİGÜN                   MAHALLESİ 1307 SOKAK NO:5/1 SARIKAYA DERI BLOK  İÇ KAPI NO: Z1 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
@@ -5717,6 +9167,21 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO:18  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
@@ -5740,6 +9205,21 @@
           <t>ÇINAR                     MAHALLESİ 5003 SOKAK NO:1/5-11  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
@@ -5763,6 +9243,21 @@
           <t xml:space="preserve"> 1421 SOKAK NO:7  DOĞANLAR BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -5786,6 +9281,21 @@
           <t>ŞEMİKLER                  MAHALLESİ ANADOLU CADDESİ NO:695/1  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -5809,6 +9319,21 @@
           <t>ETİLER                    MAHALLESİ 1275 SOKAK NO:54  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
@@ -5832,6 +9357,21 @@
           <t xml:space="preserve"> 8229/2 SK. NO:4 ODİN İŞM.B.ÇİĞLİ ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
@@ -5855,6 +9395,21 @@
           <t xml:space="preserve"> OĞUZLAR MAHALLESİ 1251 SOKAK NO:4  KAT:3 DAİRE:3 KAPILAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
@@ -5878,6 +9433,21 @@
           <t xml:space="preserve"> 866 SOKAK NO:5  KEMERALTI KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
@@ -5901,6 +9471,21 @@
           <t xml:space="preserve"> ETİLER MAH. 1268 SK. GÜNTEKİN İŞ MERKEZİ NO: 10 İÇ KAPI NO: 202 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
@@ -5924,6 +9509,21 @@
           <t xml:space="preserve"> GAZİLER CADDESİ NO:192  KAPILAR / İZMİR</t>
         </is>
       </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
@@ -5947,6 +9547,21 @@
           <t>MERİÇ MAHALLESİ 5746/2 SK. NO:3/1  BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
@@ -5970,6 +9585,21 @@
           <t>YALI                      MAHALLESİ 6522 SK. NO:3  KARŞIYAKA       / İZMİR</t>
         </is>
       </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
@@ -5993,6 +9623,21 @@
           <t>OĞUZLAR MAHALLESİ 1254 SOKAK NO:3/C  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
@@ -6016,6 +9661,21 @@
           <t xml:space="preserve"> YENİGÜN MAH. GAZİ OSMAN PAŞA BUL. NİYAZİ ERSOY İŞ MERKEZİ NO: 61 İÇ KAPI NO: 410 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
@@ -6039,6 +9699,21 @@
           <t xml:space="preserve"> GAZİ OSMAN PAŞA BULVARI NO:75/704  ÇANKAYA KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
@@ -6062,6 +9737,21 @@
           <t xml:space="preserve"> ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK  NO: 41  İÇ KAPI NO: 081 BAYRAKLI / İZMİR  / </t>
         </is>
       </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
@@ -6085,6 +9775,21 @@
           <t xml:space="preserve"> AKÇAY CADDESİ NO:144/1 EGE SERBEST BÖL. GAZİEMİR/İZMİR  / </t>
         </is>
       </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
@@ -6108,6 +9813,21 @@
           <t xml:space="preserve"> 6124 SOKAK NO:15  IŞIKKENT / İZMİR</t>
         </is>
       </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
@@ -6131,6 +9851,21 @@
           <t>HALKAPINAR MAHALLESİ 1203/2 SK. YENER İŞMERKEZİ BLOK  NO: 22  İÇ KAPI NO: 312 KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
@@ -6154,6 +9889,21 @@
           <t xml:space="preserve"> 10006 SOKAK NO:58  A.O.S.B. ÇİĞLİ/İZMİR  / </t>
         </is>
       </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
@@ -6177,6 +9927,21 @@
           <t xml:space="preserve"> ETİLER MAH. 1266 SK.  NO: 6  İÇ KAPI NO: 41 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
@@ -6200,6 +9965,21 @@
           <t xml:space="preserve"> GAZİLER CADDESİ NO:188/1-A  KAPILAR KONAK/İZMİR  / </t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
@@ -6223,6 +10003,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6122 SK. NO: 12 İÇ KAPI NO: 1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
@@ -6246,6 +10041,21 @@
           <t xml:space="preserve"> EGEMENLİK MAH. 6155 SK.  NO: 13  İÇ KAPI NO: Z1 BORNOVA / İZMİR  / </t>
         </is>
       </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
@@ -6269,6 +10079,21 @@
           <t xml:space="preserve"> KAPILAR / İZMİR</t>
         </is>
       </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
@@ -6292,6 +10117,21 @@
           <t xml:space="preserve"> TUNA SANAT   NO:35 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>ANONİM</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
@@ -6315,6 +10155,21 @@
           <t xml:space="preserve"> EGEMENLİK MAHALLESİ 6112 SOKAK NO:1/B-9 BORNOVA/İZMİR  / </t>
         </is>
       </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
@@ -6338,6 +10193,21 @@
           <t xml:space="preserve"> OĞUZLAR MAH. 1250 SK. PULLUKCU ISHANI BLOK  NO: 25  İÇ KAPI NO: 109 KONAK / İZMİR  / </t>
         </is>
       </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
@@ -6361,6 +10231,21 @@
           <t>SİTELER MAHALLESİ 221 SOKAK NO:15  GÜZELBAHÇE      / İZMİR</t>
         </is>
       </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
@@ -6384,6 +10269,21 @@
           <t>GÜZELYALI MAHALLESİ İNÖNÜ CAD. KUYUMCULAR BLOK  NO: 510  İÇ KAPI NO: 7  KONAK           / İZMİR</t>
         </is>
       </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
@@ -6407,6 +10307,21 @@
           <t>EGEMENLİK MAHALLESİ 6135 SOKAK  BEDESTEN ÇARŞI Apt.  NO: 9/B38- BORNOVA         / İZMİR</t>
         </is>
       </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
+        </is>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
@@ -6428,6 +10343,21 @@
       <c r="E262" t="inlineStr">
         <is>
           <t>AŞIK VEYSEL MAHALLESİ 5733 SOK. NO: 95/1  İÇ KAPI NO: 12 KARABAĞLAR      / İZMİR</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>LİMİTED</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
         </is>
       </c>
     </row>

--- a/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 18. komite.xlsx
+++ b/Temizlenmiş Üye Bilgi Liste/Temizlenmiş Üye Bilgi Liste - 18. komite.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J187"/>
+  <dimension ref="A1:I187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,11 +441,10 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="13" customWidth="1" min="5" max="5"/>
-    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="38" customWidth="1" min="7" max="7"/>
     <col width="141" customWidth="1" min="8" max="8"/>
     <col width="103" customWidth="1" min="9" max="9"/>
-    <col width="43" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,7 +475,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Meslek Grubu Sayı</t>
+          <t>Meslek Grubu Numarası</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -492,11 +491,6 @@
       <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Tescilli Adresi</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Meslek Grubu</t>
         </is>
       </c>
     </row>
@@ -542,11 +536,6 @@
           <t>MANSUROĞLU MAHALLESİ 286/1 SOK. NO: 1 İÇ KAPI NO: 215 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -590,11 +579,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z19 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -638,11 +622,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:24 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -686,11 +665,6 @@
           <t>ÇINAR MAH. 5003 SK. NO: 1/5 İÇ KAPI NO: 21 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -734,11 +708,6 @@
           <t>ÇINAR MAHALLESİ 5003 SK. NO: 1 /5/21 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -782,11 +751,6 @@
           <t>IRMAK MAH. 717 SK. B5 BLOK NO: 8/1 İÇ KAPI NO: 8 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -830,11 +794,6 @@
           <t>ATIFBEY MAHALLESİ 2 SOKAK NO: 53 A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -878,11 +837,6 @@
           <t>GAZİ MAH. AKÇAY CAD. NO: 190B GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -926,11 +880,6 @@
           <t>ETİLER MAHALLESİ 1265 SOK. NO: 6/11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -974,11 +923,6 @@
           <t>ADATEPE MAH. 3/18 SK. S.S.EGETEKS.KOOP SİTESİ NO: 1T BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1022,11 +966,6 @@
           <t>BOSTANLI MAHALLESİ 2014 SK. NO: 13A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1070,11 +1009,6 @@
           <t>9 EYLÜL MAHALLESİ 698 SOK. NO:7 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1118,11 +1052,6 @@
           <t>ETİLER MAHALLESİ MÜRSELPAŞA BULVARI NO:4/11 DERİ HAN Apt. KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1166,11 +1095,6 @@
           <t>MANSUROĞLU MAHALLESİ 1593/1 SOK. NO: 6/76 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1214,11 +1138,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/4 SK. BALTALI İŞM. A BLOK Apt. NO: 8/61 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1262,11 +1181,6 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO:26 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1310,11 +1224,6 @@
           <t>OSMAN AKSÜNER MAHALLESİ 5921 SOKAK NO:1 DAİRE:101 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1358,11 +1267,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z10 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1406,11 +1310,6 @@
           <t>BAHÇELERARASI MAH. ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z81 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1454,11 +1353,6 @@
           <t>EGEMENLİK MAH. 6118 SK. NO: 45 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1502,11 +1396,6 @@
           <t>KORUTÜRK MAHALLESİ AHLAT SOK. NO:3 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1550,11 +1439,6 @@
           <t>AŞIK VEYSEL MAH. 5823 SK. NO: 23A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1598,11 +1482,6 @@
           <t>AŞIK VEYSEL MAH. 5733 SK. NO: 123/1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1646,11 +1525,6 @@
           <t>GÜZELYURT MAH. 920 SK. NO: 63 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1694,11 +1568,6 @@
           <t>EGEMENLİK MAH. 6124 SK. NO: 14 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1742,11 +1611,6 @@
           <t>YENİGÜN MAH. 1308 SK. NO: 5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1790,11 +1654,6 @@
           <t>AKDENİZ MAHALLESİ ŞEHİT FETHİ BEY CAD. HERİS TOWER BLOK NO: 55 İÇ KAPI NO: 091 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1838,11 +1697,6 @@
           <t>SEYHAN MAHALLESİ 611/2 SK. NO: 6A İÇ KAPI NO: A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1886,11 +1740,6 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CADDESİ NO:2/51 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1934,11 +1783,6 @@
           <t>YENİŞEHİR MAHALLESİ 1245 SOKAK NO: 31/21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1982,11 +1826,6 @@
           <t>OĞUZLAR MAHALLESİ 1258 SK. NO: 2 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2030,11 +1869,6 @@
           <t>KONAK MAHALLESİ 856 SOKAK NO:7 KAT:1 DAİRE:102 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2078,11 +1912,6 @@
           <t>OĞUZLAR MAH. 1254 SK. NO: 2 İÇ KAPI NO: 2 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2126,11 +1955,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5824 SK. NO: 1 A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2174,11 +1998,6 @@
           <t>ÇAĞDAŞ MAH. 8825 SK. CUMHURIYET SİTESİ BİRLİK BLOK NO: 15B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2222,11 +2041,6 @@
           <t>GÜNEŞLİ MAH. 526/3 SK. NO: 7 İÇ KAPI NO: 5 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2270,11 +2084,6 @@
           <t>EGEMENLİK MAHALLESİ 6125 SOKAK NO:15 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2318,11 +2127,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5846 SK. NO:2 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2366,11 +2170,6 @@
           <t>KONAK MAH. 863 SK. NO: 23 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J40" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2414,11 +2213,6 @@
           <t>MERİÇ MAHALLESİ 5745/1 SK. NO:8/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J41" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2462,11 +2256,6 @@
           <t>MERİÇ MAHALLESİ KEMALPAŞA CAD. NO:12 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2510,11 +2299,6 @@
           <t>YENİ MAHALLE MAH. 8208 SK. TAYLAN NO: 40A ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2558,11 +2342,6 @@
           <t>AKSOY MAHALLESİ 1735 SK. NO:99/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2606,11 +2385,6 @@
           <t>ETİLER MAHALLESİ MÜRSELPAŞA BULVARI DERİ HAN BLOK NO: 4 İÇ KAPI NO: 31 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2654,11 +2428,6 @@
           <t>EGEMENLİK MAHALLESİ 6124 SK. NO: 26/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2702,11 +2471,6 @@
           <t>OĞUZLAR MAHALLESİ 1251/2 SOKAK NO:10 ZEMİN VE 1. KAT KAPILAR BASMANE / İZMİR</t>
         </is>
       </c>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2750,11 +2514,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CAD. T. ÜLKÜ ÇARŞISI APT. NO: 107/404 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J48" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2798,11 +2557,6 @@
           <t>OĞLANANASI ATATÜRK MAHALLESİ MEHMET AKİF CAD. NO:89 MENDERES / İZMİR</t>
         </is>
       </c>
-      <c r="J49" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2846,11 +2600,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:5 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J50" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -2894,11 +2643,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:10 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J51" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -2942,11 +2686,6 @@
           <t>MAVİŞEHİR MAHALLESİ AZİZ NESİN BULVARI NO:24 MAVİŞEHİR KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J52" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -2990,11 +2729,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z28 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3038,11 +2772,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 HİLLTOVVN AVM Sit. KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J54" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3086,11 +2815,6 @@
           <t>AYDIN MAHALLESİ 4281 SOKAK NO:2 İÇ KAPI NO: 1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J55" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3134,11 +2858,6 @@
           <t>GAZİ MAHALLESİ 16 SOKAK NO: 11 /E GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3182,11 +2901,6 @@
           <t>OSMAN AKSÜNER MAH. 5920 SK. NO: 3 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J57" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3230,11 +2944,6 @@
           <t>GÜNEŞLİ MAHALLESİ 515/4 SOKAK NO:12/A KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J58" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3278,11 +2987,6 @@
           <t>GAZİ OSMAN PAŞA MAH. YAVUZ SELİM CAD. NO: 15 İÇ KAPI NO: 31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3326,11 +3030,6 @@
           <t>KONAK MAH. 876 SK. NO: 22 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J60" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3374,11 +3073,6 @@
           <t>KAZIM DİRİK MAHALLESİ 372 SK. NO:24/H E BLOK BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3422,11 +3116,6 @@
           <t>BAHÇELERARASI MAHALLESİ ŞEHİT BİNBAŞI ALİ RESMİ TUFAN CAD. NO: 3 İÇ KAPI NO: Z37 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J62" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3470,11 +3159,6 @@
           <t>YALI MAHALLESİ 6522 SOK. NO:3 HİLLTOVVN AVM BLOK KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J63" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3518,11 +3202,6 @@
           <t>ABDİ İPEKÇİ MAH. 4957 SK. NO: 88A İÇ KAPI NO: A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J64" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3566,11 +3245,6 @@
           <t>EGEMENLİK MAHALLESİ 6133 SOKAK NO:24 AYKÜSAN AYAKKABICILAR SİTESİ IŞIKKENT / İZMİR</t>
         </is>
       </c>
-      <c r="J65" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3614,11 +3288,6 @@
           <t>YELKİ MAH. 2732 SK. NO: 138 İÇ KAPI NO: 27 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J66" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3662,11 +3331,6 @@
           <t>RAFETPAŞA MAHALLESİ YILDIRIM BEYAZIT CADDESİ B BLOK NO: 217D BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3710,11 +3374,6 @@
           <t>GÖKDERE MAHALLESİ GÖKDERE CAD. NO: 24/Z1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J68" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3758,11 +3417,6 @@
           <t>İHSAN ALYANAK MAHALLESİ 5020 SK. NO:82 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3806,11 +3460,6 @@
           <t>TUNA MAHALLESİ 5501 SOKAK NO:31/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J70" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -3854,11 +3503,6 @@
           <t>MERİÇ MAH. 5747/1 SK. NO: 26 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J71" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -3902,11 +3546,6 @@
           <t>EGEMENLİK MAHALLESİ 6087 SK. NO: 4/B1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -3950,11 +3589,6 @@
           <t>KARACAOĞLAN MAHALLESİ 6159 SK. NO: 1 D BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -3998,11 +3632,6 @@
           <t>YENİŞEHİR MAH. 1145/5 SK. ÇETİNKAYA İŞ MERKEZİ NO: 5 İÇ KAPI NO: 301 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J74" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4046,11 +3675,6 @@
           <t>BİNBAŞI REŞATBEY MAHALLESİ AKÇAY CAD. NO: 19 İÇ KAPI NO: Z1 GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J75" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4094,11 +3718,6 @@
           <t>OĞUZLAR MAHALLESİ GAZİLER CADDESİ NO:188/1 ASLI HAN BLOK KAT:301 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4142,11 +3761,6 @@
           <t>MERİÇ MAHALLESİ 5745/1 SK. NO: 1/3 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4190,11 +3804,6 @@
           <t>ETİLER MAHALLESİ 1268 SOKAK GÜNTEKİN İŞ MERKEZİ Apt. NO: 10/101 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4238,11 +3847,6 @@
           <t>OĞUZLAR MAHALLESİ 1251 SOKAK NO:2 KAT:5 DAİRE:50 BASMANE KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4286,11 +3890,6 @@
           <t>YUNUS EMRE MAHALLESİ 4026 SK. NO: 11/_ KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4334,11 +3933,6 @@
           <t>EGEMENLİK MAHALLESİ 6122 SOKAK NO: 15 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J81" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4382,11 +3976,6 @@
           <t>MERSİNLİ MAHALLESİ FATİH CADDESİ NO: 216 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4430,11 +4019,6 @@
           <t>BUCAOSB MAH. 3/21 SK. NO: 12 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J83" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4478,11 +4062,6 @@
           <t>OĞUZLAR MAHALLESİ GAZİLER CADDESİ NO:192/501 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4526,11 +4105,6 @@
           <t>TUNA MAHALLESİ 1710 SK. NO:14/A KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J85" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4574,11 +4148,6 @@
           <t>AŞIK VEYSEL MAHALLESİ YEŞİLLİK CAD. NO:335 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J86" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4622,11 +4191,6 @@
           <t>AKDENİZ MAHALLESİ MİMAR KEMALETTİN CADDESİ T. ÜLKÜ ÇARŞISI BLOK NO: 107 İÇ KAPI NO: Z0 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J87" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4670,11 +4234,6 @@
           <t>TUNA MAHALLESİ 5500/3 SOK. NO:16 ÇAMDİBİ / İZMİR</t>
         </is>
       </c>
-      <c r="J88" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4718,11 +4277,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5853 SK. NO: 6 A/A KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4766,11 +4320,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 4038 SOK. NO: 11 İÇ KAPI NO: 11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J90" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -4814,11 +4363,6 @@
           <t>ETİLER MAH. 1266 SK. NO: 6 İÇ KAPI NO: 11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J91" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -4862,11 +4406,6 @@
           <t>YENİŞEHİR MAHALLESİ 1202 SOKAK NO:144/21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J92" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -4910,11 +4449,6 @@
           <t>BAHÇELERARASI MAHALLESİ SANDAL SK. NO:33 BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J93" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -4958,11 +4492,6 @@
           <t>OĞUZLAR MAH. 1250 SK. NO: 27 İÇ KAPI NO: 21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J94" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5006,11 +4535,6 @@
           <t>ÜNİVERSİTE MAH. 4418 SK. NO: 5 ÇEŞME / İZMİR</t>
         </is>
       </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5054,11 +4578,6 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO:12/14 IŞIKKENT BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J96" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5102,11 +4621,6 @@
           <t>OĞUZLAR MAHALLESİ 1254 SOKAK NO:2/25 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J97" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5150,11 +4664,6 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CAD. NO:24/32 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5198,11 +4707,6 @@
           <t>ESENTEPE MAH. 8810/1 SK. NO: 21B ÇİĞLİ / İZMİR</t>
         </is>
       </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5246,11 +4750,6 @@
           <t>OSMAN AKSÜMER MAHALLESİ 5902 SOKAK NO:4/11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J100" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5294,11 +4793,6 @@
           <t>EGEMENLİK MAHALLESİ AYDINLAR CD. NO:60 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J101" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5342,11 +4836,6 @@
           <t>AŞIK VEYSEL MAH. 5733 SK. NO: 103 İÇ KAPI NO: Z1 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J102" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5390,11 +4879,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5853 SOKAK NO:7 KARABAĞLAR KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J103" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5438,11 +4922,6 @@
           <t>ETİLER MAHALLESİ 1268 SOKAK GÜNTEKİN İŞ MERKEZİ BLOK NO:10 İÇ KAPI NO:102 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J104" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5486,11 +4965,6 @@
           <t>AYDIN MAH. 4308 SK. AKYOL BLOK NO: 2 İÇ KAPI NO: 21 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5534,11 +5008,6 @@
           <t>ÇETİN EMEÇ MAHALLESİ MODA SK. NO:3/B SELWAY OUTLET PARK AVM BALÇOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J106" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5582,11 +5051,6 @@
           <t>BAHÇELİEVLER MAH. 509/6 SK. NO: 26A KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5630,11 +5094,6 @@
           <t>EMREZ MAHALLESİ 179 SOKAK NO:10/A GAZİEMİR / İZMİR</t>
         </is>
       </c>
-      <c r="J108" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5678,11 +5137,6 @@
           <t>ADALET MAHALLESİ MANAS BULVARI NO: 47 B/2601 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J109" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5726,11 +5180,6 @@
           <t>ETİLER MAHALLESİ BOZKURT CADDESİ NO:21/41 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J110" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -5774,11 +5223,6 @@
           <t>OĞUZLAR MAH. 1254 SK. NO: 3 İÇ KAPI NO: 708 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -5822,11 +5266,6 @@
           <t>ATATÜRK MAHALLESİ 762 SOKAK NO:35/Z-1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -5870,11 +5309,6 @@
           <t>SEYHAN MAH. 611/2 SK. NO: 6 İÇ KAPI NO: 1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -5918,11 +5352,6 @@
           <t>MERİÇ MAHALLESİ 5746/1 SOKAK NO:8 M.T.K.SİTESİ BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J114" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -5966,11 +5395,6 @@
           <t>UFUK MAHALLESİ 914 SOK. NO:25/1 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6014,11 +5438,6 @@
           <t>BARIŞ MAHALLESİ 302 SK. NO:10/A/A BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6062,11 +5481,6 @@
           <t>OĞUZLAR MAHALLESİ BOZKURT CAD. NO: 2 İÇ KAPI NO: 71 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6110,11 +5524,6 @@
           <t>ADATEPE MAHALLESİ 2/17 SK. NO: 51 A/2 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6158,11 +5567,6 @@
           <t>KAZIMDİRİK MAHALLESİ 296/1 SK. NO:4 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6206,11 +5610,6 @@
           <t>OSMAN AKSUNER MAHALLESİ 5922 SK. NO: 2 İÇ KAPI NO: 102 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6254,11 +5653,6 @@
           <t>KEMALPAŞA MAHALLESİ 7405/1 SK. NO: 12/_ BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6302,11 +5696,6 @@
           <t>OSMAN AKSÜNER MAHALLESİ YEŞİLLİK CAD. NO: 167 İÇ KAPI NO: 21 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6350,11 +5739,6 @@
           <t>SELÇUK MAH. 636 SK. NO: 4 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6398,11 +5782,6 @@
           <t>EGEMENLİK MAHALLESİ 6118 SOKAK NO: 41 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6446,11 +5825,6 @@
           <t>MERİÇ MAHALLESİ 5745/6 SK NO: 14 İÇ KAPI NO: 3 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6494,11 +5868,6 @@
           <t>MERİÇ MAHALLESİ 5745/7 SOK. NO:8/2 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6542,11 +5911,6 @@
           <t>MERİÇ MAH. 5747/1 SK. NO: 16 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6590,11 +5954,6 @@
           <t>KAZIMDİRİK MAHALLESİ 283 SK. NO: 16/1 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J128" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6638,11 +5997,6 @@
           <t>EGEMENLİK MAHALLESİ 6125 SOKAK NO:31 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J129" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6686,11 +6040,6 @@
           <t>OĞUZLAR MAHALLESİ 1250 SOKAK NO: 27 İÇ KAPI NO: 12 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J130" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -6734,11 +6083,6 @@
           <t>ADALET MAH. MANAS BUL. FOLKART TOWERS NO: 47B İÇ KAPI NO: 2809 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J131" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -6782,11 +6126,6 @@
           <t>EGEMENLİK MAHALLESİ 6121 SOKAK MERKEZ ÇARŞI BLOK NO: 1 İÇ KAPI NO: 109 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J132" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -6830,11 +6169,6 @@
           <t>PEKER MAHALLESİ 5069 SOKAK NO:18 /- _ ADRES NO: 1070562895 MESKEN KARABAĞLAR/İZMİR</t>
         </is>
       </c>
-      <c r="J133" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -6878,11 +6212,6 @@
           <t>OĞUZLAR MAHALLESİ 1251 SOKAK NO: 2 İÇ KAPI NO: Z1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J134" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -6926,11 +6255,6 @@
           <t>KONAK MAH. ANAFARTALAR CAD. NO: 116 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -6974,11 +6298,6 @@
           <t>KOCAKAPI MAHALLESİ 1250/1 SOKAK NO: 4 İÇ KAPI NO: 1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J136" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7022,11 +6341,6 @@
           <t>YENİŞEHİR MAHALLESİ 1245 SOKAK NO:31 İÇ KAPI NO: 31 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J137" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7070,11 +6384,6 @@
           <t>AŞIK VEYSEL MAHALLESİ 5733 SOK. NO: 123B İÇ KAPI NO: B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J138" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7118,11 +6427,6 @@
           <t>KAZIMDİRİK MAH. 284 SK. NO: 2 İÇ KAPI NO: 407 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J139" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7166,11 +6470,6 @@
           <t>TUNA MAHALLESİ 5501 SOKAK NO:31/A BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7214,11 +6513,6 @@
           <t>ÇINARLI MAHALLESİ 1587/1 SOKAK NO:8/406 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J141" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7262,11 +6556,6 @@
           <t>ETİLER MAHALLESİ MÜRSELPAŞA BULVARI DERİ HAN Apt. NO: 4/21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J142" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7310,11 +6599,6 @@
           <t>ŞİRİNKENT MAHALLESİ 4257 SK. 1 NO.LU BLOK NO: 20/1 URLA / İZMİR</t>
         </is>
       </c>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7358,11 +6642,6 @@
           <t>ETİLER MAHALLESİ 1264 SOKAK NO:6/11 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J144" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7406,11 +6685,6 @@
           <t>AYKÜSAN IŞIKKENT MAHALLESİ 6108 CADDE NO:31 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J145" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7454,11 +6728,6 @@
           <t>İSMET KAPTAN MAHALLESİ GAZİ OSMAN PAŞA BULVARI HİLTON OTELİ BLOK NO: 7 İÇ KAPI NO: Z15 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J146" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7502,11 +6771,6 @@
           <t>YENİŞEHİR MAH. GAZİLER CAD. NO: 353/6 İÇ KAPI NO: 22 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7550,11 +6814,6 @@
           <t>CENNETOĞLU MAH. YEŞİLLİK CAD. NO: 202-204B KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J148" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7598,11 +6857,6 @@
           <t>ETİLER MAH. BOZKURT CAD. DERİCİLER ÇARŞISI NO: 1D İÇ KAPI NO: D KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7646,11 +6900,6 @@
           <t>LALE MAHALLESİ GÜRÇEŞME CADDESİ NO: 392 İÇ KAPI NO: 3 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -7694,11 +6943,6 @@
           <t>ÇINARLI MAH. 1572 SK. NO: 33 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -7742,11 +6986,6 @@
           <t>OĞUZLAR MAH. 1251 SK. NO: 2 İÇ KAPI NO: 21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -7790,11 +7029,6 @@
           <t>ZAFER MAHALLESİ 2360 SK. NO:4 BUCA / İZMİR</t>
         </is>
       </c>
-      <c r="J153" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -7838,11 +7072,6 @@
           <t>HURŞİDİYE MAHALLESİ 1308 SOKAK NO:2/101 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -7886,11 +7115,6 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO:28 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J155" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -7934,11 +7158,6 @@
           <t>İSMET KAPTAN MAHALLESİ 1374 NO:4/601 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -7982,11 +7201,6 @@
           <t>ETİLER MAHALLESİ 1264 SOKAK NO: 6 İÇ KAPI NO: 21 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J157" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8030,11 +7244,6 @@
           <t>AŞIK VEYSEL MAH. 5822 SK. NO: 17 İÇ KAPI NO: 11 KARABAĞLAR / İZMİR</t>
         </is>
       </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8078,11 +7287,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/4 SK. NO: 8/51 KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8126,11 +7330,6 @@
           <t>MİTHATPAŞA MAHALLESİ 178 SK. NO:10 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8174,11 +7373,6 @@
           <t>MUSTAFA KEMAL MAHALLESİ 6753/8 SK. NO: 15 C/9 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8222,11 +7416,6 @@
           <t>OĞUZLAR MAHALLESİ 1251 SOKAK NO:2/51 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8270,11 +7459,6 @@
           <t>MENDERES MAHALLESİ 1168 SK. NO: 25 GAZİEMİR/İZMİR</t>
         </is>
       </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8318,11 +7502,6 @@
           <t>HALKAPINAR MAHALLESİ 1203 SOK. NO: 13 İÇ KAPI NO: 707 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J164" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8366,11 +7545,6 @@
           <t>KAZIMDİRİK MAH. 296/2 SK. NO: 33 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J165" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8414,11 +7588,6 @@
           <t>YENİGÜN MAHALLESİ 1307 SOKAK NO:5/1 SARIKAYA DERI BLOK İÇ KAPI NO: Z1 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J166" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8462,11 +7631,6 @@
           <t>EGEMENLİK MAHALLESİ 6116 SOKAK NO:18 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J167" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8510,11 +7674,6 @@
           <t>ÇINAR MAHALLESİ 5003 SOKAK NO:1/5-11 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8558,11 +7717,6 @@
           <t>ŞEMİKLER MAHALLESİ ANADOLU CADDESİ NO:695/1 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8606,11 +7760,6 @@
           <t>ETİLER MAHALLESİ 1275 SOKAK NO:54 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J170" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -8654,11 +7803,6 @@
           <t>OĞUZLAR MAHALLESİ 1251 SOKAK NO:4 KAT:3 DAİRE:3 KAPILAR KONAK/İZMİR</t>
         </is>
       </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -8702,11 +7846,6 @@
           <t>ETİLER MAH. 1268 SK. GÜNTEKİN İŞ MERKEZİ NO: 10 İÇ KAPI NO: 202 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -8750,11 +7889,6 @@
           <t>MERİÇ MAHALLESİ 5746/2 SK. NO:3/1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -8798,11 +7932,6 @@
           <t>YALI MAHALLESİ 6522 SK. NO:3 KARŞIYAKA / İZMİR</t>
         </is>
       </c>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -8846,11 +7975,6 @@
           <t>OĞUZLAR MAHALLESİ 1254 SOKAK NO:3/C KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J175" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -8894,11 +8018,6 @@
           <t>YENİGÜN MAH. GAZİ OSMAN PAŞA BUL. NİYAZİ ERSOY İŞ MERKEZİ NO: 61 İÇ KAPI NO: 410 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -8942,11 +8061,6 @@
           <t>ADALET MAH. ANADOLU CAD. MEGAPOL TOWER BLOK NO: 41 İÇ KAPI NO: 081 BAYRAKLI / İZMİR</t>
         </is>
       </c>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -8990,11 +8104,6 @@
           <t>HALKAPINAR MAHALLESİ 1203/2 SK. YENER İŞMERKEZİ BLOK NO: 22 İÇ KAPI NO: 312 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J178" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9038,11 +8147,6 @@
           <t>ETİLER MAH. 1266 SK. NO: 6 İÇ KAPI NO: 41 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9086,11 +8190,6 @@
           <t>EGEMENLİK MAH. 6122 SK. NO: 12 İÇ KAPI NO: 1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J180" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9134,11 +8233,6 @@
           <t>EGEMENLİK MAH. 6155 SK. NO: 13 İÇ KAPI NO: Z1 BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9182,11 +8276,6 @@
           <t>EGEMENLİK MAHALLESİ 6112 SOKAK NO:1/B-9 BORNOVA/İZMİR</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9230,11 +8319,6 @@
           <t>OĞUZLAR MAH. 1250 SK. PULLUKCU ISHANI BLOK NO: 25 İÇ KAPI NO: 109 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9278,11 +8362,6 @@
           <t>SİTELER MAHALLESİ 221 SOKAK NO:15 GÜZELBAHÇE / İZMİR</t>
         </is>
       </c>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9326,11 +8405,6 @@
           <t>GÜZELYALI MAHALLESİ İNÖNÜ CAD. KUYUMCULAR BLOK NO: 510 İÇ KAPI NO: 7 KONAK / İZMİR</t>
         </is>
       </c>
-      <c r="J185" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9374,11 +8448,6 @@
           <t>EGEMENLİK MAHALLESİ 6135 SOKAK BEDESTEN ÇARŞI Apt. NO: 9/B38- BORNOVA / İZMİR</t>
         </is>
       </c>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
-        </is>
-      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9420,11 +8489,6 @@
       <c r="I187" s="2" t="inlineStr">
         <is>
           <t>AŞIK VEYSEL MAHALLESİ 5733 SOK. NO: 95/1 İÇ KAPI NO: 12 KARABAĞLAR / İZMİR</t>
-        </is>
-      </c>
-      <c r="J187" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">18 - DERİ KONFEKSİYON VE SARACİYE GRUBU </t>
         </is>
       </c>
     </row>
